--- a/limesurvey_survey_builder.xlsx
+++ b/limesurvey_survey_builder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/R/limesurvey/v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/GitHub/limesurvey-excel-builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{145A0E63-5904-45D7-B4EB-F1993759BAA9}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7284F84E-FED3-464A-A506-676C8B52D901}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>What is your gender?</t>
-  </si>
-  <si>
     <t>Care este sexul dumneavoastră?</t>
   </si>
   <si>
@@ -3455,13 +3452,83 @@
   </si>
   <si>
     <t>See 'Question Types Reference' and 'Relevance &amp; Validation' sheets for details.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>your</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3559,6 +3626,60 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3693,7 +3814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3767,11 +3888,71 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAED6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFA3E4D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAED6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFA3E4D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAED6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFA3E4D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3844,6 +4025,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4142,9 +4328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5329,7 +5515,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="32" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="14"/>
@@ -5709,19 +5895,19 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="14"/>
+      <c r="N21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="24" t="s">
+      <c r="O21" s="24"/>
+      <c r="P21" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24" t="s">
-        <v>116</v>
       </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="14"/>
@@ -5773,32 +5959,32 @@
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="24" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="14"/>
@@ -5850,32 +6036,32 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14" t="s">
+      <c r="M23" s="27"/>
+      <c r="N23" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="24" t="s">
+      <c r="O23" s="27"/>
+      <c r="P23" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="14"/>
@@ -5927,32 +6113,32 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14" t="s">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="24" t="s">
+      <c r="O24" s="29"/>
+      <c r="P24" s="29" t="s">
         <v>132</v>
-      </c>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="14"/>
@@ -6010,7 +6196,7 @@
         <v>67</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -6019,19 +6205,19 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="14"/>
@@ -6049,10 +6235,10 @@
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG25" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="AG25" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
@@ -6073,7 +6259,7 @@
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
@@ -6095,26 +6281,26 @@
         <v>79</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O26" s="24"/>
       <c r="P26" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="14"/>
@@ -6149,13 +6335,13 @@
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AX26" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY26" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="AY26" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="AZ26" s="14"/>
       <c r="BA26" s="14"/>
@@ -6175,10 +6361,10 @@
         <v>110</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -6187,19 +6373,19 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="14"/>
@@ -6251,32 +6437,32 @@
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O28" s="24"/>
       <c r="P28" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="14"/>
@@ -6328,32 +6514,32 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O29" s="24"/>
       <c r="P29" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="14"/>
@@ -6405,32 +6591,32 @@
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="14"/>
@@ -6482,32 +6668,32 @@
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="14"/>
@@ -6559,32 +6745,32 @@
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E32" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O32" s="24"/>
       <c r="P32" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q32" s="24"/>
       <c r="R32" s="14"/>
@@ -6642,30 +6828,30 @@
         <v>60</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="24"/>
       <c r="R33" s="14"/>
@@ -6696,7 +6882,7 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AT33" s="14"/>
       <c r="AU33" s="14"/>
@@ -6725,37 +6911,37 @@
         <v>60</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="L34" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="M34" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="N34" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="O34" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="P34" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="P34" s="24" t="s">
+      <c r="Q34" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="Q34" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -6812,37 +6998,37 @@
         <v>60</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K35" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="L35" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="M35" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="N35" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="N35" s="24" t="s">
+      <c r="O35" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="O35" s="24" t="s">
+      <c r="P35" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="P35" s="24" t="s">
+      <c r="Q35" s="24" t="s">
         <v>205</v>
-      </c>
-      <c r="Q35" s="24" t="s">
-        <v>206</v>
       </c>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
@@ -6899,7 +7085,7 @@
         <v>67</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -6908,19 +7094,19 @@
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M36" s="14"/>
       <c r="N36" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="24"/>
       <c r="R36" s="14"/>
@@ -6938,10 +7124,10 @@
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG36" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
@@ -6982,26 +7168,26 @@
         <v>81</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="24"/>
       <c r="R37" s="14"/>
@@ -7057,26 +7243,26 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M38" s="14"/>
       <c r="N38" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O38" s="24"/>
       <c r="P38" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q38" s="24"/>
       <c r="R38" s="14"/>
@@ -7134,7 +7320,7 @@
         <v>111</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -7145,19 +7331,19 @@
         <v>73</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M39" s="14"/>
       <c r="N39" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q39" s="24"/>
       <c r="R39" s="14"/>
@@ -7186,7 +7372,7 @@
       <c r="AO39" s="14"/>
       <c r="AP39" s="14"/>
       <c r="AQ39" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -7211,32 +7397,32 @@
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M40" s="14"/>
       <c r="N40" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O40" s="24"/>
       <c r="P40" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q40" s="24"/>
       <c r="R40" s="14"/>
@@ -7288,32 +7474,32 @@
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E41" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O41" s="24"/>
       <c r="P41" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q41" s="24"/>
       <c r="R41" s="14"/>
@@ -7365,32 +7551,32 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E42" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M42" s="14"/>
       <c r="N42" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O42" s="24"/>
       <c r="P42" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="14"/>
@@ -7442,32 +7628,32 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E43" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O43" s="24"/>
       <c r="P43" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q43" s="24"/>
       <c r="R43" s="14"/>
@@ -7525,10 +7711,10 @@
         <v>67</v>
       </c>
       <c r="E44" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14" t="s">
@@ -7536,19 +7722,19 @@
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O44" s="24"/>
       <c r="P44" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q44" s="24"/>
       <c r="R44" s="14"/>
@@ -7566,10 +7752,10 @@
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG44" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
@@ -7610,28 +7796,28 @@
         <v>67</v>
       </c>
       <c r="E45" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O45" s="24"/>
       <c r="P45" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="14"/>
@@ -7649,10 +7835,10 @@
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
       <c r="AF45" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG45" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH45" s="14"/>
       <c r="AI45" s="14"/>
@@ -7693,28 +7879,28 @@
         <v>67</v>
       </c>
       <c r="E46" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>260</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M46" s="14"/>
       <c r="N46" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O46" s="24"/>
       <c r="P46" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q46" s="24"/>
       <c r="R46" s="14"/>
@@ -7732,10 +7918,10 @@
       <c r="AD46" s="14"/>
       <c r="AE46" s="14"/>
       <c r="AF46" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG46" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="AG46" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
@@ -7776,7 +7962,7 @@
         <v>73</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -7785,19 +7971,19 @@
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M47" s="14"/>
       <c r="N47" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="14"/>
@@ -7855,10 +8041,10 @@
         <v>111</v>
       </c>
       <c r="E48" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>273</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14" t="s">
@@ -7866,19 +8052,19 @@
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M48" s="14"/>
       <c r="N48" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="14"/>
@@ -7930,32 +8116,32 @@
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E49" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M49" s="14"/>
       <c r="N49" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q49" s="24"/>
       <c r="R49" s="14"/>
@@ -8007,32 +8193,32 @@
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E50" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M50" s="14"/>
       <c r="N50" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q50" s="24"/>
       <c r="R50" s="14"/>
@@ -8084,32 +8270,32 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E51" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q51" s="24"/>
       <c r="R51" s="14"/>
@@ -8161,32 +8347,32 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E52" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M52" s="14"/>
       <c r="N52" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q52" s="24"/>
       <c r="R52" s="14"/>
@@ -8238,32 +8424,32 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E53" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q53" s="24"/>
       <c r="R53" s="14"/>
@@ -8321,37 +8507,37 @@
         <v>67</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="L54" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="M54" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="M54" s="14" t="s">
+      <c r="N54" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="N54" s="24" t="s">
+      <c r="O54" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="O54" s="24" t="s">
+      <c r="P54" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="P54" s="24" t="s">
+      <c r="Q54" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>306</v>
       </c>
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
@@ -8368,10 +8554,10 @@
       <c r="AD54" s="14"/>
       <c r="AE54" s="14"/>
       <c r="AF54" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG54" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH54" s="14"/>
       <c r="AI54" s="14"/>
@@ -8409,10 +8595,10 @@
         <v>110</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -8421,19 +8607,19 @@
         <v>73</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q55" s="24"/>
       <c r="R55" s="14"/>
@@ -8448,7 +8634,7 @@
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD55" s="14"/>
       <c r="AE55" s="14"/>
@@ -8462,7 +8648,7 @@
       <c r="AM55" s="14"/>
       <c r="AN55" s="14"/>
       <c r="AO55" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AP55" s="14"/>
       <c r="AQ55" s="14"/>
@@ -8489,32 +8675,32 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O56" s="24"/>
       <c r="P56" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q56" s="24"/>
       <c r="R56" s="14"/>
@@ -8566,32 +8752,32 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O57" s="24"/>
       <c r="P57" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q57" s="24"/>
       <c r="R57" s="14"/>
@@ -8643,32 +8829,32 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M58" s="14"/>
       <c r="N58" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O58" s="24"/>
       <c r="P58" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q58" s="24"/>
       <c r="R58" s="14"/>
@@ -8720,32 +8906,32 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M59" s="14"/>
       <c r="N59" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O59" s="24"/>
       <c r="P59" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q59" s="24"/>
       <c r="R59" s="14"/>
@@ -8797,32 +8983,32 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O60" s="24"/>
       <c r="P60" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q60" s="24"/>
       <c r="R60" s="14"/>
@@ -8874,32 +9060,32 @@
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M61" s="14"/>
       <c r="N61" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q61" s="24"/>
       <c r="R61" s="14"/>
@@ -8951,32 +9137,32 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M62" s="14"/>
       <c r="N62" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O62" s="24"/>
       <c r="P62" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q62" s="24"/>
       <c r="R62" s="14"/>
@@ -9028,32 +9214,32 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M63" s="14"/>
       <c r="N63" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q63" s="24"/>
       <c r="R63" s="14"/>
@@ -9111,28 +9297,28 @@
         <v>111</v>
       </c>
       <c r="E64" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>351</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K64" s="14"/>
       <c r="L64" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M64" s="14"/>
       <c r="N64" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O64" s="24"/>
       <c r="P64" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q64" s="24"/>
       <c r="R64" s="14"/>
@@ -9184,32 +9370,32 @@
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E65" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M65" s="14"/>
       <c r="N65" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O65" s="24"/>
       <c r="P65" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q65" s="24"/>
       <c r="R65" s="14"/>
@@ -9261,32 +9447,32 @@
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E66" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M66" s="14"/>
       <c r="N66" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O66" s="24"/>
       <c r="P66" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q66" s="24"/>
       <c r="R66" s="14"/>
@@ -9338,32 +9524,32 @@
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E67" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M67" s="14"/>
       <c r="N67" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O67" s="24"/>
       <c r="P67" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q67" s="24"/>
       <c r="R67" s="14"/>
@@ -9415,32 +9601,32 @@
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E68" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O68" s="24"/>
       <c r="P68" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q68" s="24"/>
       <c r="R68" s="14"/>
@@ -9495,10 +9681,10 @@
         <v>110</v>
       </c>
       <c r="D69" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -9507,19 +9693,19 @@
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M69" s="14"/>
       <c r="N69" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O69" s="24"/>
       <c r="P69" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q69" s="24"/>
       <c r="R69" s="14"/>
@@ -9571,32 +9757,32 @@
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M70" s="14"/>
       <c r="N70" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O70" s="24"/>
       <c r="P70" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q70" s="24"/>
       <c r="R70" s="14"/>
@@ -9648,32 +9834,32 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O71" s="24"/>
       <c r="P71" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q71" s="24"/>
       <c r="R71" s="14"/>
@@ -9728,35 +9914,35 @@
         <v>110</v>
       </c>
       <c r="D72" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>385</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M72" s="14"/>
       <c r="N72" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O72" s="24"/>
       <c r="P72" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q72" s="24"/>
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U72" s="14"/>
       <c r="V72" s="14"/>
@@ -9810,28 +9996,28 @@
         <v>81</v>
       </c>
       <c r="E73" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M73" s="14"/>
       <c r="N73" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O73" s="24"/>
       <c r="P73" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q73" s="24"/>
       <c r="R73" s="14"/>
@@ -9887,26 +10073,26 @@
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M74" s="14"/>
       <c r="N74" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O74" s="24"/>
       <c r="P74" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q74" s="24"/>
       <c r="R74" s="14"/>
@@ -9961,10 +10147,10 @@
         <v>110</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -9973,28 +10159,28 @@
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="K75" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="L75" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L75" s="14" t="s">
+      <c r="M75" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="M75" s="14" t="s">
+      <c r="N75" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="N75" s="24" t="s">
+      <c r="O75" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="O75" s="24" t="s">
+      <c r="P75" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="P75" s="24" t="s">
+      <c r="Q75" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="Q75" s="24" t="s">
-        <v>406</v>
       </c>
       <c r="R75" s="14"/>
       <c r="S75" s="14"/>
@@ -10045,32 +10231,32 @@
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M76" s="14"/>
       <c r="N76" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O76" s="24"/>
       <c r="P76" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q76" s="24"/>
       <c r="R76" s="14"/>
@@ -10122,32 +10308,32 @@
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M77" s="14"/>
       <c r="N77" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O77" s="24"/>
       <c r="P77" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q77" s="24"/>
       <c r="R77" s="14"/>
@@ -10199,32 +10385,32 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M78" s="14"/>
       <c r="N78" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q78" s="24"/>
       <c r="R78" s="14"/>
@@ -10276,32 +10462,32 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O79" s="24"/>
       <c r="P79" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q79" s="24"/>
       <c r="R79" s="14"/>
@@ -10353,32 +10539,32 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q80" s="24"/>
       <c r="R80" s="14"/>
@@ -10430,32 +10616,32 @@
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M81" s="14"/>
       <c r="N81" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O81" s="24"/>
       <c r="P81" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q81" s="24"/>
       <c r="R81" s="14"/>
@@ -10507,32 +10693,32 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M82" s="14"/>
       <c r="N82" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O82" s="24"/>
       <c r="P82" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q82" s="24"/>
       <c r="R82" s="14"/>
@@ -10584,34 +10770,34 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E83" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O83" s="24"/>
       <c r="P83" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q83" s="24"/>
       <c r="R83" s="14"/>
@@ -10663,34 +10849,34 @@
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E84" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M84" s="14"/>
       <c r="N84" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O84" s="24"/>
       <c r="P84" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q84" s="24"/>
       <c r="R84" s="14"/>
@@ -10742,34 +10928,34 @@
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E85" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M85" s="14"/>
       <c r="N85" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O85" s="24"/>
       <c r="P85" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q85" s="24"/>
       <c r="R85" s="14"/>
@@ -10821,34 +11007,34 @@
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E86" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K86" s="14"/>
       <c r="L86" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M86" s="14"/>
       <c r="N86" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O86" s="24"/>
       <c r="P86" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q86" s="24"/>
       <c r="R86" s="14"/>
@@ -10900,34 +11086,34 @@
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E87" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M87" s="14"/>
       <c r="N87" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O87" s="24"/>
       <c r="P87" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="14"/>
@@ -10985,26 +11171,26 @@
         <v>67</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K88" s="14"/>
       <c r="L88" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M88" s="14"/>
       <c r="N88" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O88" s="24"/>
       <c r="P88" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q88" s="24"/>
       <c r="R88" s="14"/>
@@ -11022,10 +11208,10 @@
       <c r="AD88" s="14"/>
       <c r="AE88" s="14"/>
       <c r="AF88" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG88" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH88" s="14"/>
       <c r="AI88" s="14"/>
@@ -11063,29 +11249,29 @@
         <v>110</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M89" s="14"/>
       <c r="N89" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O89" s="24"/>
       <c r="P89" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q89" s="24"/>
       <c r="R89" s="14"/>
@@ -11140,10 +11326,10 @@
         <v>110</v>
       </c>
       <c r="D90" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E90" s="14" t="s">
         <v>460</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
@@ -11152,19 +11338,19 @@
         <v>73</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K90" s="14"/>
       <c r="L90" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O90" s="24"/>
       <c r="P90" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="14"/>
@@ -11216,32 +11402,32 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K91" s="14"/>
       <c r="L91" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M91" s="14"/>
       <c r="N91" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O91" s="24"/>
       <c r="P91" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q91" s="24"/>
       <c r="R91" s="14"/>
@@ -11293,32 +11479,32 @@
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K92" s="14"/>
       <c r="L92" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M92" s="14"/>
       <c r="N92" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O92" s="24"/>
       <c r="P92" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q92" s="24"/>
       <c r="R92" s="14"/>
@@ -11370,32 +11556,32 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M93" s="14"/>
       <c r="N93" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O93" s="24"/>
       <c r="P93" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q93" s="24"/>
       <c r="R93" s="14"/>
@@ -11447,32 +11633,32 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M94" s="14"/>
       <c r="N94" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O94" s="24"/>
       <c r="P94" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q94" s="24"/>
       <c r="R94" s="14"/>
@@ -11524,32 +11710,32 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K95" s="14"/>
       <c r="L95" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M95" s="14"/>
       <c r="N95" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O95" s="24"/>
       <c r="P95" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q95" s="24"/>
       <c r="R95" s="14"/>
@@ -11604,38 +11790,38 @@
         <v>110</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="K96" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="L96" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="L96" s="14" t="s">
+      <c r="M96" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="M96" s="14" t="s">
+      <c r="N96" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="N96" s="24" t="s">
+      <c r="O96" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="O96" s="24" t="s">
+      <c r="P96" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="P96" s="24" t="s">
+      <c r="Q96" s="24" t="s">
         <v>490</v>
-      </c>
-      <c r="Q96" s="24" t="s">
-        <v>491</v>
       </c>
       <c r="R96" s="14"/>
       <c r="S96" s="14"/>
@@ -11652,13 +11838,13 @@
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
       <c r="AF96" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG96" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH96" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AI96" s="14"/>
       <c r="AJ96" s="14"/>
@@ -11692,32 +11878,32 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K97" s="14"/>
       <c r="L97" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M97" s="14"/>
       <c r="N97" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O97" s="24"/>
       <c r="P97" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q97" s="24"/>
       <c r="R97" s="14"/>
@@ -11769,32 +11955,32 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K98" s="14"/>
       <c r="L98" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M98" s="14"/>
       <c r="N98" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O98" s="24"/>
       <c r="P98" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="14"/>
@@ -11846,32 +12032,32 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K99" s="14"/>
       <c r="L99" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M99" s="14"/>
       <c r="N99" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O99" s="24"/>
       <c r="P99" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q99" s="24"/>
       <c r="R99" s="14"/>
@@ -11923,32 +12109,32 @@
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M100" s="14"/>
       <c r="N100" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O100" s="24"/>
       <c r="P100" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q100" s="24"/>
       <c r="R100" s="14"/>
@@ -12004,26 +12190,26 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K101" s="14"/>
       <c r="L101" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O101" s="24"/>
       <c r="P101" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q101" s="24"/>
       <c r="R101" s="14"/>
@@ -12078,10 +12264,10 @@
         <v>110</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -12090,19 +12276,19 @@
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K102" s="14"/>
       <c r="L102" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M102" s="14"/>
       <c r="N102" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O102" s="24"/>
       <c r="P102" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q102" s="24"/>
       <c r="R102" s="14"/>
@@ -12154,32 +12340,32 @@
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K103" s="14"/>
       <c r="L103" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M103" s="14"/>
       <c r="N103" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O103" s="24"/>
       <c r="P103" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q103" s="24"/>
       <c r="R103" s="14"/>
@@ -12231,32 +12417,32 @@
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K104" s="14"/>
       <c r="L104" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M104" s="14"/>
       <c r="N104" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O104" s="24"/>
       <c r="P104" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q104" s="24"/>
       <c r="R104" s="14"/>
@@ -12308,32 +12494,32 @@
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K105" s="14"/>
       <c r="L105" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M105" s="14"/>
       <c r="N105" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O105" s="24"/>
       <c r="P105" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="14"/>
@@ -12385,32 +12571,32 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K106" s="14"/>
       <c r="L106" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M106" s="14"/>
       <c r="N106" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O106" s="24"/>
       <c r="P106" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q106" s="24"/>
       <c r="R106" s="14"/>
@@ -12462,32 +12648,32 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K107" s="14"/>
       <c r="L107" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M107" s="14"/>
       <c r="N107" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O107" s="24"/>
       <c r="P107" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q107" s="24"/>
       <c r="R107" s="14"/>
@@ -12542,29 +12728,29 @@
         <v>110</v>
       </c>
       <c r="D108" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E108" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>537</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K108" s="14"/>
       <c r="L108" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M108" s="14"/>
       <c r="N108" s="24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O108" s="24"/>
       <c r="P108" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q108" s="24"/>
       <c r="R108" s="14"/>
@@ -12616,32 +12802,32 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K109" s="14"/>
       <c r="L109" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M109" s="14"/>
       <c r="N109" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O109" s="24"/>
       <c r="P109" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q109" s="24"/>
       <c r="R109" s="14"/>
@@ -12693,32 +12879,32 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K110" s="14"/>
       <c r="L110" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M110" s="14"/>
       <c r="N110" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O110" s="24"/>
       <c r="P110" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q110" s="24"/>
       <c r="R110" s="14"/>
@@ -12770,32 +12956,32 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K111" s="14"/>
       <c r="L111" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M111" s="14"/>
       <c r="N111" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O111" s="24"/>
       <c r="P111" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q111" s="24"/>
       <c r="R111" s="14"/>
@@ -12847,32 +13033,32 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K112" s="14"/>
       <c r="L112" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M112" s="14"/>
       <c r="N112" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O112" s="24"/>
       <c r="P112" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q112" s="24"/>
       <c r="R112" s="14"/>
@@ -12924,32 +13110,32 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K113" s="14"/>
       <c r="L113" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M113" s="14"/>
       <c r="N113" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O113" s="24"/>
       <c r="P113" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q113" s="24"/>
       <c r="R113" s="14"/>
@@ -13004,29 +13190,29 @@
         <v>110</v>
       </c>
       <c r="D114" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="E114" s="14" t="s">
         <v>561</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>562</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K114" s="14"/>
       <c r="L114" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M114" s="14"/>
       <c r="N114" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O114" s="24"/>
       <c r="P114" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q114" s="24"/>
       <c r="R114" s="14"/>
@@ -13078,32 +13264,32 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K115" s="14"/>
       <c r="L115" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M115" s="14"/>
       <c r="N115" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O115" s="24"/>
       <c r="P115" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q115" s="24"/>
       <c r="R115" s="14"/>
@@ -13155,32 +13341,32 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K116" s="14"/>
       <c r="L116" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M116" s="14"/>
       <c r="N116" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O116" s="24"/>
       <c r="P116" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q116" s="24"/>
       <c r="R116" s="14"/>
@@ -13232,32 +13418,32 @@
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K117" s="14"/>
       <c r="L117" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M117" s="14"/>
       <c r="N117" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O117" s="24"/>
       <c r="P117" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q117" s="24"/>
       <c r="R117" s="14"/>
@@ -13309,32 +13495,32 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K118" s="14"/>
       <c r="L118" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M118" s="14"/>
       <c r="N118" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O118" s="24"/>
       <c r="P118" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q118" s="24"/>
       <c r="R118" s="14"/>
@@ -13389,29 +13575,29 @@
         <v>110</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K119" s="14"/>
       <c r="L119" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M119" s="14"/>
       <c r="N119" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O119" s="24"/>
       <c r="P119" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q119" s="24"/>
       <c r="R119" s="14"/>
@@ -13463,32 +13649,32 @@
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K120" s="14"/>
       <c r="L120" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M120" s="14"/>
       <c r="N120" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O120" s="24"/>
       <c r="P120" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q120" s="24"/>
       <c r="R120" s="14"/>
@@ -13540,32 +13726,32 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K121" s="14"/>
       <c r="L121" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M121" s="14"/>
       <c r="N121" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O121" s="24"/>
       <c r="P121" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q121" s="24"/>
       <c r="R121" s="14"/>
@@ -13617,32 +13803,32 @@
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K122" s="14"/>
       <c r="L122" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M122" s="14"/>
       <c r="N122" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O122" s="24"/>
       <c r="P122" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q122" s="24"/>
       <c r="R122" s="14"/>
@@ -13694,32 +13880,32 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K123" s="14"/>
       <c r="L123" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M123" s="14"/>
       <c r="N123" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O123" s="24"/>
       <c r="P123" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q123" s="24"/>
       <c r="R123" s="14"/>
@@ -13771,32 +13957,32 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E124" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K124" s="14"/>
       <c r="L124" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M124" s="14"/>
       <c r="N124" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O124" s="24"/>
       <c r="P124" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q124" s="24"/>
       <c r="R124" s="14"/>
@@ -13848,32 +14034,32 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E125" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K125" s="14"/>
       <c r="L125" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M125" s="14"/>
       <c r="N125" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O125" s="24"/>
       <c r="P125" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q125" s="24"/>
       <c r="R125" s="14"/>
@@ -13925,32 +14111,32 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E126" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K126" s="14"/>
       <c r="L126" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M126" s="14"/>
       <c r="N126" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O126" s="24"/>
       <c r="P126" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q126" s="24"/>
       <c r="R126" s="14"/>
@@ -14002,32 +14188,32 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E127" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K127" s="14"/>
       <c r="L127" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M127" s="14"/>
       <c r="N127" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O127" s="24"/>
       <c r="P127" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q127" s="24"/>
       <c r="R127" s="14"/>
@@ -14079,32 +14265,32 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K128" s="14"/>
       <c r="L128" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M128" s="14"/>
       <c r="N128" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O128" s="24"/>
       <c r="P128" s="24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q128" s="24"/>
       <c r="R128" s="14"/>
@@ -14156,32 +14342,32 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K129" s="14"/>
       <c r="L129" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M129" s="14"/>
       <c r="N129" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O129" s="24"/>
       <c r="P129" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q129" s="24"/>
       <c r="R129" s="14"/>
@@ -14233,32 +14419,32 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K130" s="14"/>
       <c r="L130" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M130" s="14"/>
       <c r="N130" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O130" s="24"/>
       <c r="P130" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q130" s="24"/>
       <c r="R130" s="14"/>
@@ -14310,32 +14496,32 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K131" s="14"/>
       <c r="L131" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M131" s="14"/>
       <c r="N131" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O131" s="24"/>
       <c r="P131" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q131" s="24"/>
       <c r="R131" s="14"/>
@@ -14390,29 +14576,29 @@
         <v>110</v>
       </c>
       <c r="D132" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="E132" s="14" t="s">
         <v>635</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>636</v>
       </c>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K132" s="14"/>
       <c r="L132" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M132" s="14"/>
       <c r="N132" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O132" s="24"/>
       <c r="P132" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q132" s="24"/>
       <c r="R132" s="14"/>
@@ -14426,7 +14612,7 @@
       <c r="Z132" s="14"/>
       <c r="AA132" s="14"/>
       <c r="AB132" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC132" s="14"/>
       <c r="AD132" s="14"/>
@@ -14466,32 +14652,32 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K133" s="14"/>
       <c r="L133" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M133" s="14"/>
       <c r="N133" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O133" s="24"/>
       <c r="P133" s="24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q133" s="24"/>
       <c r="R133" s="14"/>
@@ -14543,32 +14729,32 @@
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K134" s="14"/>
       <c r="L134" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M134" s="14"/>
       <c r="N134" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q134" s="24"/>
       <c r="R134" s="14"/>
@@ -14620,32 +14806,32 @@
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K135" s="14"/>
       <c r="L135" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M135" s="14"/>
       <c r="N135" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q135" s="24"/>
       <c r="R135" s="14"/>
@@ -14697,32 +14883,32 @@
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K136" s="14"/>
       <c r="L136" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M136" s="14"/>
       <c r="N136" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q136" s="24"/>
       <c r="R136" s="14"/>
@@ -14774,32 +14960,32 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K137" s="14"/>
       <c r="L137" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M137" s="14"/>
       <c r="N137" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O137" s="24"/>
       <c r="P137" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q137" s="24"/>
       <c r="R137" s="14"/>
@@ -14851,32 +15037,32 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K138" s="14"/>
       <c r="L138" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M138" s="14"/>
       <c r="N138" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O138" s="24"/>
       <c r="P138" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q138" s="24"/>
       <c r="R138" s="14"/>
@@ -14928,32 +15114,32 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K139" s="14"/>
       <c r="L139" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M139" s="14"/>
       <c r="N139" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O139" s="24"/>
       <c r="P139" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q139" s="24"/>
       <c r="R139" s="14"/>
@@ -15009,26 +15195,26 @@
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K140" s="14"/>
       <c r="L140" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M140" s="14"/>
       <c r="N140" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O140" s="24"/>
       <c r="P140" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q140" s="24"/>
       <c r="R140" s="14"/>
@@ -15083,29 +15269,29 @@
         <v>110</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K141" s="14"/>
       <c r="L141" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M141" s="14"/>
       <c r="N141" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q141" s="24"/>
       <c r="R141" s="14"/>
@@ -15132,7 +15318,7 @@
       <c r="AM141" s="14"/>
       <c r="AN141" s="14"/>
       <c r="AO141" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AP141" s="14"/>
       <c r="AQ141" s="14"/>
@@ -15159,32 +15345,32 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K142" s="14"/>
       <c r="L142" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M142" s="14"/>
       <c r="N142" s="24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q142" s="24"/>
       <c r="R142" s="14"/>
@@ -15236,32 +15422,32 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K143" s="14"/>
       <c r="L143" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M143" s="14"/>
       <c r="N143" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O143" s="24"/>
       <c r="P143" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q143" s="24"/>
       <c r="R143" s="14"/>
@@ -15313,32 +15499,32 @@
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K144" s="14"/>
       <c r="L144" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M144" s="14"/>
       <c r="N144" s="24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O144" s="24"/>
       <c r="P144" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q144" s="24"/>
       <c r="R144" s="14"/>
@@ -15390,32 +15576,32 @@
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K145" s="14"/>
       <c r="L145" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M145" s="14"/>
       <c r="N145" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O145" s="24"/>
       <c r="P145" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q145" s="24"/>
       <c r="R145" s="14"/>
@@ -15467,32 +15653,32 @@
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K146" s="14"/>
       <c r="L146" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M146" s="14"/>
       <c r="N146" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O146" s="24"/>
       <c r="P146" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q146" s="24"/>
       <c r="R146" s="14"/>
@@ -15544,32 +15730,32 @@
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K147" s="14"/>
       <c r="L147" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M147" s="14"/>
       <c r="N147" s="24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O147" s="24"/>
       <c r="P147" s="24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q147" s="24"/>
       <c r="R147" s="14"/>
@@ -15624,31 +15810,31 @@
         <v>110</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E148" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="F148" s="14" t="s">
         <v>701</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>702</v>
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K148" s="14"/>
       <c r="L148" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M148" s="14"/>
       <c r="N148" s="24" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O148" s="24"/>
       <c r="P148" s="24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q148" s="24"/>
       <c r="R148" s="14"/>
@@ -15673,7 +15859,7 @@
       <c r="AK148" s="14"/>
       <c r="AL148" s="14"/>
       <c r="AM148" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AN148" s="14"/>
       <c r="AO148" s="14"/>
@@ -15702,32 +15888,32 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E149" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K149" s="14"/>
       <c r="L149" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M149" s="14"/>
       <c r="N149" s="24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O149" s="24"/>
       <c r="P149" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q149" s="24"/>
       <c r="R149" s="14"/>
@@ -15779,32 +15965,32 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K150" s="14"/>
       <c r="L150" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M150" s="14"/>
       <c r="N150" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O150" s="24"/>
       <c r="P150" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q150" s="24"/>
       <c r="R150" s="14"/>
@@ -15856,32 +16042,32 @@
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K151" s="14"/>
       <c r="L151" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M151" s="14"/>
       <c r="N151" s="24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q151" s="24"/>
       <c r="R151" s="14"/>
@@ -15933,32 +16119,32 @@
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K152" s="14"/>
       <c r="L152" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M152" s="14"/>
       <c r="N152" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O152" s="24"/>
       <c r="P152" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q152" s="24"/>
       <c r="R152" s="14"/>
@@ -16010,32 +16196,32 @@
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K153" s="14"/>
       <c r="L153" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M153" s="14"/>
       <c r="N153" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O153" s="24"/>
       <c r="P153" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q153" s="24"/>
       <c r="R153" s="14"/>
@@ -16087,32 +16273,32 @@
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D154" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E154" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K154" s="14"/>
       <c r="L154" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M154" s="14"/>
       <c r="N154" s="24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O154" s="24"/>
       <c r="P154" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q154" s="24"/>
       <c r="R154" s="14"/>
@@ -16164,32 +16350,32 @@
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D155" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E155" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K155" s="14"/>
       <c r="L155" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M155" s="14"/>
       <c r="N155" s="24" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O155" s="24"/>
       <c r="P155" s="24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q155" s="24"/>
       <c r="R155" s="14"/>
@@ -16241,32 +16427,32 @@
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D156" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E156" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K156" s="14"/>
       <c r="L156" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M156" s="14"/>
       <c r="N156" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O156" s="24"/>
       <c r="P156" s="24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q156" s="24"/>
       <c r="R156" s="14"/>
@@ -16318,32 +16504,32 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D157" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D157" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E157" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K157" s="14"/>
       <c r="L157" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M157" s="14"/>
       <c r="N157" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O157" s="24"/>
       <c r="P157" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Q157" s="24"/>
       <c r="R157" s="14"/>
@@ -16401,26 +16587,26 @@
         <v>110</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K158" s="14"/>
       <c r="L158" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M158" s="14"/>
       <c r="N158" s="24" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O158" s="24"/>
       <c r="P158" s="24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q158" s="24"/>
       <c r="R158" s="14"/>
@@ -16443,10 +16629,10 @@
       <c r="AI158" s="14"/>
       <c r="AJ158" s="14"/>
       <c r="AK158" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="AL158" s="14" t="s">
         <v>728</v>
-      </c>
-      <c r="AL158" s="14" t="s">
-        <v>729</v>
       </c>
       <c r="AM158" s="14"/>
       <c r="AN158" s="14"/>
@@ -16476,32 +16662,32 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E159" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K159" s="14"/>
       <c r="L159" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M159" s="14"/>
       <c r="N159" s="24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O159" s="24"/>
       <c r="P159" s="24" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q159" s="24"/>
       <c r="R159" s="14"/>
@@ -16553,32 +16739,32 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K160" s="14"/>
       <c r="L160" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M160" s="14"/>
       <c r="N160" s="24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O160" s="24"/>
       <c r="P160" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q160" s="24"/>
       <c r="R160" s="14"/>
@@ -16630,32 +16816,32 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K161" s="14"/>
       <c r="L161" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M161" s="14"/>
       <c r="N161" s="24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O161" s="24"/>
       <c r="P161" s="24" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q161" s="24"/>
       <c r="R161" s="14"/>
@@ -16710,29 +16896,29 @@
         <v>110</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K162" s="14"/>
       <c r="L162" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M162" s="14"/>
       <c r="N162" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O162" s="24"/>
       <c r="P162" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q162" s="24"/>
       <c r="R162" s="14"/>
@@ -16784,32 +16970,32 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D163" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E163" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K163" s="14"/>
       <c r="L163" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M163" s="14"/>
       <c r="N163" s="24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O163" s="24"/>
       <c r="P163" s="24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q163" s="24"/>
       <c r="R163" s="14"/>
@@ -16861,32 +17047,32 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D164" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E164" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K164" s="14"/>
       <c r="L164" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M164" s="14"/>
       <c r="N164" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O164" s="24"/>
       <c r="P164" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q164" s="24"/>
       <c r="R164" s="14"/>
@@ -16938,32 +17124,32 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D165" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E165" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K165" s="14"/>
       <c r="L165" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M165" s="14"/>
       <c r="N165" s="24" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O165" s="24"/>
       <c r="P165" s="24" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q165" s="24"/>
       <c r="R165" s="14"/>
@@ -17015,32 +17201,32 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D166" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E166" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K166" s="14"/>
       <c r="L166" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M166" s="14"/>
       <c r="N166" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O166" s="24"/>
       <c r="P166" s="24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q166" s="24"/>
       <c r="R166" s="14"/>
@@ -17092,32 +17278,32 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D167" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D167" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E167" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K167" s="14"/>
       <c r="L167" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M167" s="14"/>
       <c r="N167" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O167" s="24"/>
       <c r="P167" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q167" s="24"/>
       <c r="R167" s="14"/>
@@ -17169,32 +17355,32 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D168" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E168" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K168" s="14"/>
       <c r="L168" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M168" s="14"/>
       <c r="N168" s="24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O168" s="24"/>
       <c r="P168" s="24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q168" s="24"/>
       <c r="R168" s="14"/>
@@ -17249,29 +17435,29 @@
         <v>110</v>
       </c>
       <c r="D169" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="E169" s="14" t="s">
         <v>766</v>
-      </c>
-      <c r="E169" s="14" t="s">
-        <v>767</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K169" s="14"/>
       <c r="L169" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M169" s="14"/>
       <c r="N169" s="24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O169" s="24"/>
       <c r="P169" s="24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q169" s="24"/>
       <c r="R169" s="14"/>
@@ -17327,26 +17513,26 @@
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M170" s="14"/>
       <c r="N170" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O170" s="24"/>
       <c r="P170" s="24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q170" s="24"/>
       <c r="R170" s="14"/>
@@ -17401,29 +17587,29 @@
         <v>110</v>
       </c>
       <c r="D171" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="E171" s="14" t="s">
         <v>777</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>778</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M171" s="14"/>
       <c r="N171" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O171" s="24"/>
       <c r="P171" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Q171" s="24"/>
       <c r="R171" s="14"/>
@@ -17454,7 +17640,7 @@
       <c r="AQ171" s="14"/>
       <c r="AR171" s="14"/>
       <c r="AS171" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AT171" s="14"/>
       <c r="AU171" s="14"/>
@@ -17480,29 +17666,29 @@
         <v>110</v>
       </c>
       <c r="D172" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="E172" s="14" t="s">
         <v>784</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>785</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M172" s="14"/>
       <c r="N172" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O172" s="24"/>
       <c r="P172" s="24" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q172" s="24"/>
       <c r="R172" s="14"/>
@@ -17557,29 +17743,29 @@
         <v>110</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M173" s="14"/>
       <c r="N173" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O173" s="24"/>
       <c r="P173" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q173" s="24"/>
       <c r="R173" s="14"/>
@@ -17600,10 +17786,10 @@
       <c r="AG173" s="14"/>
       <c r="AH173" s="14"/>
       <c r="AI173" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="AJ173" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="AJ173" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="AK173" s="14"/>
       <c r="AL173" s="14"/>
@@ -17635,32 +17821,32 @@
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E174" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K174" s="14"/>
       <c r="L174" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M174" s="14"/>
       <c r="N174" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O174" s="24"/>
       <c r="P174" s="24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q174" s="24"/>
       <c r="R174" s="14"/>
@@ -17712,32 +17898,32 @@
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M175" s="14"/>
       <c r="N175" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O175" s="24"/>
       <c r="P175" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q175" s="24"/>
       <c r="R175" s="14"/>
@@ -17789,32 +17975,32 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K176" s="14"/>
       <c r="L176" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M176" s="14"/>
       <c r="N176" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O176" s="24"/>
       <c r="P176" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="Q176" s="24"/>
       <c r="R176" s="14"/>
@@ -17866,32 +18052,32 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K177" s="14"/>
       <c r="L177" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M177" s="14"/>
       <c r="N177" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O177" s="24"/>
       <c r="P177" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Q177" s="24"/>
       <c r="R177" s="14"/>
@@ -17943,32 +18129,32 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K178" s="14"/>
       <c r="L178" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M178" s="14"/>
       <c r="N178" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O178" s="24"/>
       <c r="P178" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q178" s="24"/>
       <c r="R178" s="14"/>
@@ -18026,7 +18212,7 @@
         <v>73</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
@@ -18035,19 +18221,19 @@
       </c>
       <c r="I179" s="14"/>
       <c r="J179" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K179" s="14"/>
       <c r="L179" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M179" s="14"/>
       <c r="N179" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O179" s="24"/>
       <c r="P179" s="24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q179" s="24"/>
       <c r="R179" s="14"/>
@@ -18105,14 +18291,14 @@
         <v>81</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
@@ -18223,39 +18409,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BD100000">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$C2="SL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$C2="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$C2="SQ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$C2="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J100000">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$C2="G"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L23">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C2="Q"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$C2="G"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:P22">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C22="Q"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$C22="G"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:P23">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C23="Q"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$C23="G"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:P24">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C24="Q"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C2="G"</formula>
+      <formula>$C24="G"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -18293,87 +18503,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -18381,30 +18591,30 @@
         <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -18412,19 +18622,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -18432,67 +18642,67 @@
         <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>844</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -18500,33 +18710,33 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -18534,50 +18744,50 @@
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -18585,33 +18795,33 @@
         <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -18619,30 +18829,30 @@
         <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>44</v>
@@ -18650,16 +18860,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>44</v>
@@ -18670,16 +18880,16 @@
         <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -18687,118 +18897,118 @@
         <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -18825,21 +19035,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -18847,184 +19057,184 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -19035,7 +19245,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -19043,75 +19253,75 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -19123,7 +19333,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -19131,86 +19341,86 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -19221,7 +19431,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -19229,58 +19439,58 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -19291,7 +19501,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -19299,44 +19509,44 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -19347,7 +19557,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -19355,55 +19565,55 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="D48" s="1"/>
     </row>
@@ -19431,16 +19641,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>981</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>982</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -19454,13 +19664,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>984</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>985</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -19477,10 +19687,10 @@
         <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>986</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>987</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -19497,10 +19707,10 @@
         <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>988</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>989</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -19517,10 +19727,10 @@
         <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>990</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>991</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -19537,10 +19747,10 @@
         <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>992</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>993</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19557,10 +19767,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>994</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>995</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19574,13 +19784,13 @@
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>998</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19597,10 +19807,10 @@
         <v>73</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>999</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1000</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19617,10 +19827,10 @@
         <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -19631,16 +19841,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -19651,16 +19861,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -19677,10 +19887,10 @@
         <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -19691,16 +19901,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -19711,16 +19921,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -19737,10 +19947,10 @@
         <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -19757,10 +19967,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -19771,16 +19981,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -19797,10 +20007,10 @@
         <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>1015</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>1016</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -19817,10 +20027,10 @@
         <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1017</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1018</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -19831,16 +20041,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -19851,16 +20061,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1023</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -19871,58 +20081,58 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -19933,16 +20143,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>1034</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -19950,13 +20160,13 @@
         <v>85</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>1037</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
@@ -19964,13 +20174,13 @@
         <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>1040</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
@@ -19978,13 +20188,13 @@
         <v>95</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>1043</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -19992,41 +20202,41 @@
         <v>100</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>1045</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>1048</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>1052</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -20047,7 +20257,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -20059,49 +20269,49 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -20113,28 +20323,28 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -20146,42 +20356,42 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -20193,56 +20403,56 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -20254,77 +20464,77 @@
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -20336,28 +20546,28 @@
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -20369,28 +20579,28 @@
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -20402,35 +20612,35 @@
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -20447,7 +20657,7 @@
     </row>
     <row r="61" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -20459,7 +20669,7 @@
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -20471,14 +20681,14 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -20490,14 +20700,14 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -20509,14 +20719,14 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -20528,21 +20738,21 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -20554,28 +20764,28 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -20587,21 +20797,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -20613,42 +20823,42 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -20660,14 +20870,14 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -20679,14 +20889,14 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -20698,14 +20908,14 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -20717,14 +20927,14 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -20736,14 +20946,14 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -20760,28 +20970,28 @@
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="18" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>

--- a/limesurvey_survey_builder.xlsx
+++ b/limesurvey_survey_builder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/GitHub/limesurvey-excel-builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7284F84E-FED3-464A-A506-676C8B52D901}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16F0DECC-30D1-411B-A75D-F04D85C5216D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3508,7 +3508,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="7"/>
+        <color rgb="FF7030A0"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3528,7 +3528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3647,12 +3647,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF00FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3665,12 +3659,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3678,6 +3666,12 @@
     <font>
       <sz val="10"/>
       <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3888,10 +3882,16 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3900,45 +3900,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4328,9 +4294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5515,7 +5481,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="14"/>
@@ -5898,15 +5864,15 @@
         <v>1141</v>
       </c>
       <c r="K21" s="14"/>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="31" t="s">
+      <c r="M21" s="29"/>
+      <c r="N21" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="31" t="s">
+      <c r="O21" s="30"/>
+      <c r="P21" s="30" t="s">
         <v>115</v>
       </c>
       <c r="Q21" s="24"/>
@@ -6125,19 +6091,19 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="29" t="s">
+      <c r="K24" s="32"/>
+      <c r="L24" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29" t="s">
+      <c r="M24" s="32"/>
+      <c r="N24" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29" t="s">
+      <c r="O24" s="32"/>
+      <c r="P24" s="32" t="s">
         <v>132</v>
       </c>
       <c r="Q24" s="24"/>
@@ -18409,63 +18375,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BD100000">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$C2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$C2="SL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$C2="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$C2="SQ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$C2="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J100000">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>$C2="G"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L23">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$C2="G"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:P22">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="L22:P24">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C22="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C22="G"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:P23">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C23="Q"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$C23="G"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:P24">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C24="Q"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C24="G"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/limesurvey_survey_builder.xlsx
+++ b/limesurvey_survey_builder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/GitHub/limesurvey-excel-builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16F0DECC-30D1-411B-A75D-F04D85C5216D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F17B4E8-7FA2-477A-9EE6-6F5CB3DB83AD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4294,9 +4294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14618,7 +14618,7 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>117</v>
@@ -14695,7 +14695,7 @@
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>117</v>
@@ -14772,7 +14772,7 @@
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>117</v>
@@ -14849,7 +14849,7 @@
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>117</v>
@@ -14926,7 +14926,7 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>117</v>
@@ -15003,7 +15003,7 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>117</v>
@@ -15080,7 +15080,7 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>117</v>
@@ -18440,7 +18440,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/limesurvey_survey_builder.xlsx
+++ b/limesurvey_survey_builder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/GitHub/limesurvey-excel-builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F17B4E8-7FA2-477A-9EE6-6F5CB3DB83AD}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB101DC-1C0C-4591-809A-79FA55F40CF4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3904,7 +3904,133 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFF2AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB9F1D1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF8BE5B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADBD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC7F2F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCEBC5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF80B1D3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADBD8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFCF3CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFA3E4D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAED6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFABEBC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD5F5E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3993,7 +4119,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF00FF"/>
+      <color rgb="FFB9F1D1"/>
+      <color rgb="FFA8EEC6"/>
+      <color rgb="FF8BE5B4"/>
+      <color rgb="FFFFF2AE"/>
+      <color rgb="FFE6F5C9"/>
+      <color rgb="FFB3E2CD"/>
+      <color rgb="FFCBD5E8"/>
+      <color rgb="FFCCEBC5"/>
+      <color rgb="FF80B1D3"/>
+      <color rgb="FFC7F2F1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4295,8 +4430,8 @@
   <dimension ref="A1:BI181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18374,48 +18509,24 @@
       <c r="BI181" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:BD100000">
-    <cfRule type="expression" dxfId="11" priority="9">
+  <conditionalFormatting sqref="A2:BH100000">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$C2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>$C2="SL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>$C2="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$C2="SQ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$C2="A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J100000">
-    <cfRule type="expression" dxfId="5" priority="15">
-      <formula>$C2="Q"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
-      <formula>$C2="G"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L23">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C2="Q"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$C2="G"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22:P24">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C22="Q"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C22="G"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -18430,7 +18541,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/limesurvey_survey_builder.xlsx
+++ b/limesurvey_survey_builder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/GitHub/limesurvey-excel-builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F45F37866DE831C4565093252323AAE612571C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB101DC-1C0C-4591-809A-79FA55F40CF4}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_81CD780B6FE431C4565093A94BF2E0DE1051590A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD52EA87-8BB6-45E1-B5FE-8109CD9D7655}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1142">
   <si>
     <t>id</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>What is your gender?</t>
   </si>
   <si>
     <t>Care este sexul dumneavoastră?</t>
@@ -2412,10 +2415,7 @@
     <t>Horas por semana en cada actividad (deben sumar 168):</t>
   </si>
   <si>
-    <t>(self.NAOK == 168)</t>
-  </si>
-  <si>
-    <t>Total must equal 168 hours</t>
+    <t>168</t>
   </si>
   <si>
     <t>Sleep</t>
@@ -2881,6 +2881,9 @@
     <t>Q-level equation</t>
   </si>
   <si>
+    <t>(self.NAOK == 168)</t>
+  </si>
+  <si>
     <t>Validate across all SQs</t>
   </si>
   <si>
@@ -3452,83 +3455,13 @@
   </si>
   <si>
     <t>See 'Question Types Reference' and 'Relevance &amp; Validation' sheets for details.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>What</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>your</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3626,24 +3559,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3882,43 +3797,29 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3950,28 +3851,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFADBD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC7F2F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCEBC5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF80B1D3"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3982,155 +3862,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADBD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFCF3CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFABEBC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD5F5E3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADBD8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFCF3CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA3E4D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFAED6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFABEBC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD5F5E3"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFB9F1D1"/>
-      <color rgb="FFA8EEC6"/>
-      <color rgb="FF8BE5B4"/>
-      <color rgb="FFFFF2AE"/>
-      <color rgb="FFE6F5C9"/>
-      <color rgb="FFB3E2CD"/>
-      <color rgb="FFCBD5E8"/>
-      <color rgb="FFCCEBC5"/>
-      <color rgb="FF80B1D3"/>
-      <color rgb="FFC7F2F1"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4430,8 +4163,8 @@
   <dimension ref="A1:BI181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4439,18 +4172,12 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="28.19921875" customWidth="1"/>
+    <col min="4" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="11" width="33" customWidth="1"/>
     <col min="12" max="13" width="28.19921875" style="20" customWidth="1"/>
     <col min="14" max="17" width="28.19921875" customWidth="1"/>
-    <col min="18" max="56" width="55" customWidth="1"/>
-    <col min="57" max="57" width="20" customWidth="1"/>
-    <col min="58" max="58" width="9.06640625" customWidth="1"/>
+    <col min="18" max="19" width="16.53125" customWidth="1"/>
+    <col min="20" max="60" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -5996,19 +5723,19 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="21" t="s">
-        <v>1141</v>
+        <v>113</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M21" s="29"/>
       <c r="N21" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O21" s="30"/>
       <c r="P21" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="14"/>
@@ -6060,32 +5787,32 @@
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="14"/>
@@ -6137,32 +5864,32 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23" s="27"/>
       <c r="N23" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="14"/>
@@ -6214,32 +5941,32 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="14"/>
@@ -6297,7 +6024,7 @@
         <v>67</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -6306,19 +6033,19 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="14"/>
@@ -6336,10 +6063,10 @@
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
@@ -6360,7 +6087,7 @@
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
@@ -6382,26 +6109,26 @@
         <v>79</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O26" s="24"/>
       <c r="P26" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="14"/>
@@ -6436,13 +6163,13 @@
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AX26" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AY26" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AZ26" s="14"/>
       <c r="BA26" s="14"/>
@@ -6462,10 +6189,10 @@
         <v>110</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -6474,19 +6201,19 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="14"/>
@@ -6538,32 +6265,32 @@
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O28" s="24"/>
       <c r="P28" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="14"/>
@@ -6615,32 +6342,32 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O29" s="24"/>
       <c r="P29" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="14"/>
@@ -6692,32 +6419,32 @@
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="14"/>
@@ -6769,32 +6496,32 @@
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="14"/>
@@ -6846,32 +6573,32 @@
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O32" s="24"/>
       <c r="P32" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="24"/>
       <c r="R32" s="14"/>
@@ -6929,30 +6656,30 @@
         <v>60</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="24"/>
       <c r="R33" s="14"/>
@@ -6983,7 +6710,7 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AT33" s="14"/>
       <c r="AU33" s="14"/>
@@ -7012,37 +6739,37 @@
         <v>60</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -7099,37 +6826,37 @@
         <v>60</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
@@ -7186,7 +6913,7 @@
         <v>67</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -7195,19 +6922,19 @@
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M36" s="14"/>
       <c r="N36" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="24"/>
       <c r="R36" s="14"/>
@@ -7225,10 +6952,10 @@
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG36" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
@@ -7269,26 +6996,26 @@
         <v>81</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="24"/>
       <c r="R37" s="14"/>
@@ -7344,26 +7071,26 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M38" s="14"/>
       <c r="N38" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O38" s="24"/>
       <c r="P38" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38" s="24"/>
       <c r="R38" s="14"/>
@@ -7421,7 +7148,7 @@
         <v>111</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -7432,19 +7159,19 @@
         <v>73</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" s="14"/>
       <c r="N39" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39" s="24"/>
       <c r="R39" s="14"/>
@@ -7473,7 +7200,7 @@
       <c r="AO39" s="14"/>
       <c r="AP39" s="14"/>
       <c r="AQ39" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -7498,32 +7225,32 @@
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M40" s="14"/>
       <c r="N40" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O40" s="24"/>
       <c r="P40" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="24"/>
       <c r="R40" s="14"/>
@@ -7575,32 +7302,32 @@
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O41" s="24"/>
       <c r="P41" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41" s="24"/>
       <c r="R41" s="14"/>
@@ -7652,32 +7379,32 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M42" s="14"/>
       <c r="N42" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O42" s="24"/>
       <c r="P42" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="14"/>
@@ -7729,32 +7456,32 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O43" s="24"/>
       <c r="P43" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q43" s="24"/>
       <c r="R43" s="14"/>
@@ -7812,10 +7539,10 @@
         <v>67</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14" t="s">
@@ -7823,19 +7550,19 @@
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O44" s="24"/>
       <c r="P44" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q44" s="24"/>
       <c r="R44" s="14"/>
@@ -7853,10 +7580,10 @@
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG44" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
@@ -7897,28 +7624,28 @@
         <v>67</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O45" s="24"/>
       <c r="P45" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="14"/>
@@ -7936,10 +7663,10 @@
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
       <c r="AF45" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG45" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH45" s="14"/>
       <c r="AI45" s="14"/>
@@ -7980,28 +7707,28 @@
         <v>67</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M46" s="14"/>
       <c r="N46" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O46" s="24"/>
       <c r="P46" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q46" s="24"/>
       <c r="R46" s="14"/>
@@ -8019,10 +7746,10 @@
       <c r="AD46" s="14"/>
       <c r="AE46" s="14"/>
       <c r="AF46" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
@@ -8063,7 +7790,7 @@
         <v>73</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -8072,19 +7799,19 @@
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M47" s="14"/>
       <c r="N47" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="14"/>
@@ -8142,10 +7869,10 @@
         <v>111</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14" t="s">
@@ -8153,19 +7880,19 @@
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M48" s="14"/>
       <c r="N48" s="24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="14"/>
@@ -8217,32 +7944,32 @@
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M49" s="14"/>
       <c r="N49" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q49" s="24"/>
       <c r="R49" s="14"/>
@@ -8294,32 +8021,32 @@
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M50" s="14"/>
       <c r="N50" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q50" s="24"/>
       <c r="R50" s="14"/>
@@ -8371,32 +8098,32 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q51" s="24"/>
       <c r="R51" s="14"/>
@@ -8448,32 +8175,32 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M52" s="14"/>
       <c r="N52" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q52" s="24"/>
       <c r="R52" s="14"/>
@@ -8525,32 +8252,32 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q53" s="24"/>
       <c r="R53" s="14"/>
@@ -8608,37 +8335,37 @@
         <v>67</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
@@ -8655,10 +8382,10 @@
       <c r="AD54" s="14"/>
       <c r="AE54" s="14"/>
       <c r="AF54" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG54" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH54" s="14"/>
       <c r="AI54" s="14"/>
@@ -8696,10 +8423,10 @@
         <v>110</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -8708,19 +8435,19 @@
         <v>73</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q55" s="24"/>
       <c r="R55" s="14"/>
@@ -8735,7 +8462,7 @@
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD55" s="14"/>
       <c r="AE55" s="14"/>
@@ -8749,7 +8476,7 @@
       <c r="AM55" s="14"/>
       <c r="AN55" s="14"/>
       <c r="AO55" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP55" s="14"/>
       <c r="AQ55" s="14"/>
@@ -8776,32 +8503,32 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O56" s="24"/>
       <c r="P56" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q56" s="24"/>
       <c r="R56" s="14"/>
@@ -8853,32 +8580,32 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O57" s="24"/>
       <c r="P57" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q57" s="24"/>
       <c r="R57" s="14"/>
@@ -8930,32 +8657,32 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M58" s="14"/>
       <c r="N58" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O58" s="24"/>
       <c r="P58" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q58" s="24"/>
       <c r="R58" s="14"/>
@@ -9007,32 +8734,32 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M59" s="14"/>
       <c r="N59" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O59" s="24"/>
       <c r="P59" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q59" s="24"/>
       <c r="R59" s="14"/>
@@ -9084,32 +8811,32 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O60" s="24"/>
       <c r="P60" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q60" s="24"/>
       <c r="R60" s="14"/>
@@ -9161,32 +8888,32 @@
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M61" s="14"/>
       <c r="N61" s="24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q61" s="24"/>
       <c r="R61" s="14"/>
@@ -9238,32 +8965,32 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" s="14"/>
       <c r="N62" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O62" s="24"/>
       <c r="P62" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q62" s="24"/>
       <c r="R62" s="14"/>
@@ -9315,32 +9042,32 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>311</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M63" s="14"/>
       <c r="N63" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q63" s="24"/>
       <c r="R63" s="14"/>
@@ -9398,28 +9125,28 @@
         <v>111</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K64" s="14"/>
       <c r="L64" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M64" s="14"/>
       <c r="N64" s="24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O64" s="24"/>
       <c r="P64" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q64" s="24"/>
       <c r="R64" s="14"/>
@@ -9471,32 +9198,32 @@
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M65" s="14"/>
       <c r="N65" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O65" s="24"/>
       <c r="P65" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q65" s="24"/>
       <c r="R65" s="14"/>
@@ -9548,32 +9275,32 @@
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M66" s="14"/>
       <c r="N66" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O66" s="24"/>
       <c r="P66" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q66" s="24"/>
       <c r="R66" s="14"/>
@@ -9625,32 +9352,32 @@
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M67" s="14"/>
       <c r="N67" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O67" s="24"/>
       <c r="P67" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q67" s="24"/>
       <c r="R67" s="14"/>
@@ -9702,32 +9429,32 @@
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O68" s="24"/>
       <c r="P68" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q68" s="24"/>
       <c r="R68" s="14"/>
@@ -9782,10 +9509,10 @@
         <v>110</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -9794,19 +9521,19 @@
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M69" s="14"/>
       <c r="N69" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O69" s="24"/>
       <c r="P69" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q69" s="24"/>
       <c r="R69" s="14"/>
@@ -9858,32 +9585,32 @@
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M70" s="14"/>
       <c r="N70" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O70" s="24"/>
       <c r="P70" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q70" s="24"/>
       <c r="R70" s="14"/>
@@ -9935,32 +9662,32 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O71" s="24"/>
       <c r="P71" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q71" s="24"/>
       <c r="R71" s="14"/>
@@ -10015,35 +9742,35 @@
         <v>110</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M72" s="14"/>
       <c r="N72" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O72" s="24"/>
       <c r="P72" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q72" s="24"/>
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U72" s="14"/>
       <c r="V72" s="14"/>
@@ -10097,28 +9824,28 @@
         <v>81</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M73" s="14"/>
       <c r="N73" s="24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O73" s="24"/>
       <c r="P73" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q73" s="24"/>
       <c r="R73" s="14"/>
@@ -10174,26 +9901,26 @@
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M74" s="14"/>
       <c r="N74" s="24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O74" s="24"/>
       <c r="P74" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q74" s="24"/>
       <c r="R74" s="14"/>
@@ -10248,10 +9975,10 @@
         <v>110</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -10260,28 +9987,28 @@
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P75" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R75" s="14"/>
       <c r="S75" s="14"/>
@@ -10332,32 +10059,32 @@
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M76" s="14"/>
       <c r="N76" s="24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O76" s="24"/>
       <c r="P76" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q76" s="24"/>
       <c r="R76" s="14"/>
@@ -10409,32 +10136,32 @@
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M77" s="14"/>
       <c r="N77" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O77" s="24"/>
       <c r="P77" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q77" s="24"/>
       <c r="R77" s="14"/>
@@ -10486,32 +10213,32 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M78" s="14"/>
       <c r="N78" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q78" s="24"/>
       <c r="R78" s="14"/>
@@ -10563,32 +10290,32 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O79" s="24"/>
       <c r="P79" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q79" s="24"/>
       <c r="R79" s="14"/>
@@ -10640,32 +10367,32 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q80" s="24"/>
       <c r="R80" s="14"/>
@@ -10717,32 +10444,32 @@
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M81" s="14"/>
       <c r="N81" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O81" s="24"/>
       <c r="P81" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q81" s="24"/>
       <c r="R81" s="14"/>
@@ -10794,32 +10521,32 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M82" s="14"/>
       <c r="N82" s="24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O82" s="24"/>
       <c r="P82" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q82" s="24"/>
       <c r="R82" s="14"/>
@@ -10871,34 +10598,34 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O83" s="24"/>
       <c r="P83" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q83" s="24"/>
       <c r="R83" s="14"/>
@@ -10950,34 +10677,34 @@
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M84" s="14"/>
       <c r="N84" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O84" s="24"/>
       <c r="P84" s="24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q84" s="24"/>
       <c r="R84" s="14"/>
@@ -11029,34 +10756,34 @@
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M85" s="14"/>
       <c r="N85" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O85" s="24"/>
       <c r="P85" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q85" s="24"/>
       <c r="R85" s="14"/>
@@ -11108,34 +10835,34 @@
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K86" s="14"/>
       <c r="L86" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M86" s="14"/>
       <c r="N86" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O86" s="24"/>
       <c r="P86" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q86" s="24"/>
       <c r="R86" s="14"/>
@@ -11187,34 +10914,34 @@
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M87" s="14"/>
       <c r="N87" s="24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O87" s="24"/>
       <c r="P87" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="14"/>
@@ -11272,26 +10999,26 @@
         <v>67</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K88" s="14"/>
       <c r="L88" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M88" s="14"/>
       <c r="N88" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O88" s="24"/>
       <c r="P88" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q88" s="24"/>
       <c r="R88" s="14"/>
@@ -11309,10 +11036,10 @@
       <c r="AD88" s="14"/>
       <c r="AE88" s="14"/>
       <c r="AF88" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG88" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH88" s="14"/>
       <c r="AI88" s="14"/>
@@ -11350,29 +11077,29 @@
         <v>110</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M89" s="14"/>
       <c r="N89" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O89" s="24"/>
       <c r="P89" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q89" s="24"/>
       <c r="R89" s="14"/>
@@ -11427,10 +11154,10 @@
         <v>110</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
@@ -11439,19 +11166,19 @@
         <v>73</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K90" s="14"/>
       <c r="L90" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="24" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O90" s="24"/>
       <c r="P90" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="14"/>
@@ -11503,32 +11230,32 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K91" s="14"/>
       <c r="L91" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M91" s="14"/>
       <c r="N91" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O91" s="24"/>
       <c r="P91" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q91" s="24"/>
       <c r="R91" s="14"/>
@@ -11580,32 +11307,32 @@
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K92" s="14"/>
       <c r="L92" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M92" s="14"/>
       <c r="N92" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O92" s="24"/>
       <c r="P92" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q92" s="24"/>
       <c r="R92" s="14"/>
@@ -11657,32 +11384,32 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M93" s="14"/>
       <c r="N93" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O93" s="24"/>
       <c r="P93" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q93" s="24"/>
       <c r="R93" s="14"/>
@@ -11734,32 +11461,32 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M94" s="14"/>
       <c r="N94" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O94" s="24"/>
       <c r="P94" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q94" s="24"/>
       <c r="R94" s="14"/>
@@ -11811,32 +11538,32 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K95" s="14"/>
       <c r="L95" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M95" s="14"/>
       <c r="N95" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O95" s="24"/>
       <c r="P95" s="24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q95" s="24"/>
       <c r="R95" s="14"/>
@@ -11891,38 +11618,38 @@
         <v>110</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N96" s="24" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P96" s="24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q96" s="24" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R96" s="14"/>
       <c r="S96" s="14"/>
@@ -11939,13 +11666,13 @@
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
       <c r="AF96" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG96" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH96" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI96" s="14"/>
       <c r="AJ96" s="14"/>
@@ -11979,32 +11706,32 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K97" s="14"/>
       <c r="L97" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M97" s="14"/>
       <c r="N97" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O97" s="24"/>
       <c r="P97" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q97" s="24"/>
       <c r="R97" s="14"/>
@@ -12056,32 +11783,32 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K98" s="14"/>
       <c r="L98" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M98" s="14"/>
       <c r="N98" s="24" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O98" s="24"/>
       <c r="P98" s="24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="14"/>
@@ -12133,32 +11860,32 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K99" s="14"/>
       <c r="L99" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M99" s="14"/>
       <c r="N99" s="24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O99" s="24"/>
       <c r="P99" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q99" s="24"/>
       <c r="R99" s="14"/>
@@ -12210,32 +11937,32 @@
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M100" s="14"/>
       <c r="N100" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O100" s="24"/>
       <c r="P100" s="24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q100" s="24"/>
       <c r="R100" s="14"/>
@@ -12291,26 +12018,26 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K101" s="14"/>
       <c r="L101" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O101" s="24"/>
       <c r="P101" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q101" s="24"/>
       <c r="R101" s="14"/>
@@ -12365,10 +12092,10 @@
         <v>110</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -12377,19 +12104,19 @@
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K102" s="14"/>
       <c r="L102" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M102" s="14"/>
       <c r="N102" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O102" s="24"/>
       <c r="P102" s="24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q102" s="24"/>
       <c r="R102" s="14"/>
@@ -12441,32 +12168,32 @@
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K103" s="14"/>
       <c r="L103" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M103" s="14"/>
       <c r="N103" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O103" s="24"/>
       <c r="P103" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q103" s="24"/>
       <c r="R103" s="14"/>
@@ -12518,32 +12245,32 @@
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K104" s="14"/>
       <c r="L104" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M104" s="14"/>
       <c r="N104" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O104" s="24"/>
       <c r="P104" s="24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q104" s="24"/>
       <c r="R104" s="14"/>
@@ -12595,32 +12322,32 @@
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K105" s="14"/>
       <c r="L105" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M105" s="14"/>
       <c r="N105" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O105" s="24"/>
       <c r="P105" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="14"/>
@@ -12672,32 +12399,32 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K106" s="14"/>
       <c r="L106" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M106" s="14"/>
       <c r="N106" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O106" s="24"/>
       <c r="P106" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q106" s="24"/>
       <c r="R106" s="14"/>
@@ -12749,32 +12476,32 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K107" s="14"/>
       <c r="L107" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M107" s="14"/>
       <c r="N107" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O107" s="24"/>
       <c r="P107" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q107" s="24"/>
       <c r="R107" s="14"/>
@@ -12829,29 +12556,29 @@
         <v>110</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K108" s="14"/>
       <c r="L108" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M108" s="14"/>
       <c r="N108" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O108" s="24"/>
       <c r="P108" s="24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q108" s="24"/>
       <c r="R108" s="14"/>
@@ -12903,32 +12630,32 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K109" s="14"/>
       <c r="L109" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M109" s="14"/>
       <c r="N109" s="24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O109" s="24"/>
       <c r="P109" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q109" s="24"/>
       <c r="R109" s="14"/>
@@ -12980,32 +12707,32 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K110" s="14"/>
       <c r="L110" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M110" s="14"/>
       <c r="N110" s="24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O110" s="24"/>
       <c r="P110" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q110" s="24"/>
       <c r="R110" s="14"/>
@@ -13057,32 +12784,32 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K111" s="14"/>
       <c r="L111" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M111" s="14"/>
       <c r="N111" s="24" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O111" s="24"/>
       <c r="P111" s="24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q111" s="24"/>
       <c r="R111" s="14"/>
@@ -13134,32 +12861,32 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K112" s="14"/>
       <c r="L112" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M112" s="14"/>
       <c r="N112" s="24" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O112" s="24"/>
       <c r="P112" s="24" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q112" s="24"/>
       <c r="R112" s="14"/>
@@ -13211,32 +12938,32 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K113" s="14"/>
       <c r="L113" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M113" s="14"/>
       <c r="N113" s="24" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O113" s="24"/>
       <c r="P113" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q113" s="24"/>
       <c r="R113" s="14"/>
@@ -13291,29 +13018,29 @@
         <v>110</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K114" s="14"/>
       <c r="L114" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M114" s="14"/>
       <c r="N114" s="24" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O114" s="24"/>
       <c r="P114" s="24" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q114" s="24"/>
       <c r="R114" s="14"/>
@@ -13365,32 +13092,32 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K115" s="14"/>
       <c r="L115" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M115" s="14"/>
       <c r="N115" s="24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O115" s="24"/>
       <c r="P115" s="24" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q115" s="24"/>
       <c r="R115" s="14"/>
@@ -13442,32 +13169,32 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K116" s="14"/>
       <c r="L116" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M116" s="14"/>
       <c r="N116" s="24" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O116" s="24"/>
       <c r="P116" s="24" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q116" s="24"/>
       <c r="R116" s="14"/>
@@ -13519,32 +13246,32 @@
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K117" s="14"/>
       <c r="L117" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M117" s="14"/>
       <c r="N117" s="24" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O117" s="24"/>
       <c r="P117" s="24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q117" s="24"/>
       <c r="R117" s="14"/>
@@ -13596,32 +13323,32 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K118" s="14"/>
       <c r="L118" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M118" s="14"/>
       <c r="N118" s="24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O118" s="24"/>
       <c r="P118" s="24" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q118" s="24"/>
       <c r="R118" s="14"/>
@@ -13676,29 +13403,29 @@
         <v>110</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K119" s="14"/>
       <c r="L119" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M119" s="14"/>
       <c r="N119" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O119" s="24"/>
       <c r="P119" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q119" s="24"/>
       <c r="R119" s="14"/>
@@ -13750,32 +13477,32 @@
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K120" s="14"/>
       <c r="L120" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M120" s="14"/>
       <c r="N120" s="24" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O120" s="24"/>
       <c r="P120" s="24" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q120" s="24"/>
       <c r="R120" s="14"/>
@@ -13827,32 +13554,32 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K121" s="14"/>
       <c r="L121" s="14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M121" s="14"/>
       <c r="N121" s="24" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O121" s="24"/>
       <c r="P121" s="24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q121" s="24"/>
       <c r="R121" s="14"/>
@@ -13904,32 +13631,32 @@
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K122" s="14"/>
       <c r="L122" s="14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M122" s="14"/>
       <c r="N122" s="24" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O122" s="24"/>
       <c r="P122" s="24" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q122" s="24"/>
       <c r="R122" s="14"/>
@@ -13981,32 +13708,32 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K123" s="14"/>
       <c r="L123" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M123" s="14"/>
       <c r="N123" s="24" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O123" s="24"/>
       <c r="P123" s="24" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q123" s="24"/>
       <c r="R123" s="14"/>
@@ -14058,32 +13785,32 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K124" s="14"/>
       <c r="L124" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M124" s="14"/>
       <c r="N124" s="24" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O124" s="24"/>
       <c r="P124" s="24" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q124" s="24"/>
       <c r="R124" s="14"/>
@@ -14135,32 +13862,32 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K125" s="14"/>
       <c r="L125" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M125" s="14"/>
       <c r="N125" s="24" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O125" s="24"/>
       <c r="P125" s="24" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q125" s="24"/>
       <c r="R125" s="14"/>
@@ -14212,32 +13939,32 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K126" s="14"/>
       <c r="L126" s="14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M126" s="14"/>
       <c r="N126" s="24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O126" s="24"/>
       <c r="P126" s="24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q126" s="24"/>
       <c r="R126" s="14"/>
@@ -14289,32 +14016,32 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K127" s="14"/>
       <c r="L127" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M127" s="14"/>
       <c r="N127" s="24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O127" s="24"/>
       <c r="P127" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q127" s="24"/>
       <c r="R127" s="14"/>
@@ -14366,32 +14093,32 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K128" s="14"/>
       <c r="L128" s="14" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M128" s="14"/>
       <c r="N128" s="24" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O128" s="24"/>
       <c r="P128" s="24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q128" s="24"/>
       <c r="R128" s="14"/>
@@ -14443,32 +14170,32 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K129" s="14"/>
       <c r="L129" s="14" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M129" s="14"/>
       <c r="N129" s="24" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O129" s="24"/>
       <c r="P129" s="24" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q129" s="24"/>
       <c r="R129" s="14"/>
@@ -14520,32 +14247,32 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="14" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K130" s="14"/>
       <c r="L130" s="14" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M130" s="14"/>
       <c r="N130" s="24" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O130" s="24"/>
       <c r="P130" s="24" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q130" s="24"/>
       <c r="R130" s="14"/>
@@ -14597,32 +14324,32 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K131" s="14"/>
       <c r="L131" s="14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M131" s="14"/>
       <c r="N131" s="24" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O131" s="24"/>
       <c r="P131" s="24" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q131" s="24"/>
       <c r="R131" s="14"/>
@@ -14677,29 +14404,29 @@
         <v>110</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K132" s="14"/>
       <c r="L132" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M132" s="14"/>
       <c r="N132" s="24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O132" s="24"/>
       <c r="P132" s="24" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Q132" s="24"/>
       <c r="R132" s="14"/>
@@ -14713,7 +14440,7 @@
       <c r="Z132" s="14"/>
       <c r="AA132" s="14"/>
       <c r="AB132" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC132" s="14"/>
       <c r="AD132" s="14"/>
@@ -14753,32 +14480,32 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K133" s="14"/>
       <c r="L133" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M133" s="14"/>
       <c r="N133" s="24" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O133" s="24"/>
       <c r="P133" s="24" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q133" s="24"/>
       <c r="R133" s="14"/>
@@ -14830,32 +14557,32 @@
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K134" s="14"/>
       <c r="L134" s="14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M134" s="14"/>
       <c r="N134" s="24" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q134" s="24"/>
       <c r="R134" s="14"/>
@@ -14907,32 +14634,32 @@
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K135" s="14"/>
       <c r="L135" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M135" s="14"/>
       <c r="N135" s="24" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Q135" s="24"/>
       <c r="R135" s="14"/>
@@ -14984,32 +14711,32 @@
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K136" s="14"/>
       <c r="L136" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M136" s="14"/>
       <c r="N136" s="24" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q136" s="24"/>
       <c r="R136" s="14"/>
@@ -15061,32 +14788,32 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K137" s="14"/>
       <c r="L137" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M137" s="14"/>
       <c r="N137" s="24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O137" s="24"/>
       <c r="P137" s="24" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Q137" s="24"/>
       <c r="R137" s="14"/>
@@ -15138,32 +14865,32 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K138" s="14"/>
       <c r="L138" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M138" s="14"/>
       <c r="N138" s="24" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O138" s="24"/>
       <c r="P138" s="24" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q138" s="24"/>
       <c r="R138" s="14"/>
@@ -15215,32 +14942,32 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K139" s="14"/>
       <c r="L139" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M139" s="14"/>
       <c r="N139" s="24" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O139" s="24"/>
       <c r="P139" s="24" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q139" s="24"/>
       <c r="R139" s="14"/>
@@ -15296,26 +15023,26 @@
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K140" s="14"/>
       <c r="L140" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M140" s="14"/>
       <c r="N140" s="24" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O140" s="24"/>
       <c r="P140" s="24" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q140" s="24"/>
       <c r="R140" s="14"/>
@@ -15370,29 +15097,29 @@
         <v>110</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K141" s="14"/>
       <c r="L141" s="14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M141" s="14"/>
       <c r="N141" s="24" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q141" s="24"/>
       <c r="R141" s="14"/>
@@ -15419,7 +15146,7 @@
       <c r="AM141" s="14"/>
       <c r="AN141" s="14"/>
       <c r="AO141" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP141" s="14"/>
       <c r="AQ141" s="14"/>
@@ -15446,32 +15173,32 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K142" s="14"/>
       <c r="L142" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M142" s="14"/>
       <c r="N142" s="24" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q142" s="24"/>
       <c r="R142" s="14"/>
@@ -15523,32 +15250,32 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K143" s="14"/>
       <c r="L143" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M143" s="14"/>
       <c r="N143" s="24" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O143" s="24"/>
       <c r="P143" s="24" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q143" s="24"/>
       <c r="R143" s="14"/>
@@ -15600,32 +15327,32 @@
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K144" s="14"/>
       <c r="L144" s="14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M144" s="14"/>
       <c r="N144" s="24" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O144" s="24"/>
       <c r="P144" s="24" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q144" s="24"/>
       <c r="R144" s="14"/>
@@ -15677,32 +15404,32 @@
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K145" s="14"/>
       <c r="L145" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M145" s="14"/>
       <c r="N145" s="24" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O145" s="24"/>
       <c r="P145" s="24" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q145" s="24"/>
       <c r="R145" s="14"/>
@@ -15754,32 +15481,32 @@
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K146" s="14"/>
       <c r="L146" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M146" s="14"/>
       <c r="N146" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O146" s="24"/>
       <c r="P146" s="24" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q146" s="24"/>
       <c r="R146" s="14"/>
@@ -15831,32 +15558,32 @@
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>311</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K147" s="14"/>
       <c r="L147" s="14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M147" s="14"/>
       <c r="N147" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="O147" s="24"/>
       <c r="P147" s="24" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Q147" s="24"/>
       <c r="R147" s="14"/>
@@ -15911,31 +15638,31 @@
         <v>110</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K148" s="14"/>
       <c r="L148" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M148" s="14"/>
       <c r="N148" s="24" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O148" s="24"/>
       <c r="P148" s="24" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q148" s="24"/>
       <c r="R148" s="14"/>
@@ -15960,7 +15687,7 @@
       <c r="AK148" s="14"/>
       <c r="AL148" s="14"/>
       <c r="AM148" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN148" s="14"/>
       <c r="AO148" s="14"/>
@@ -15989,32 +15716,32 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K149" s="14"/>
       <c r="L149" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M149" s="14"/>
       <c r="N149" s="24" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O149" s="24"/>
       <c r="P149" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q149" s="24"/>
       <c r="R149" s="14"/>
@@ -16066,32 +15793,32 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K150" s="14"/>
       <c r="L150" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M150" s="14"/>
       <c r="N150" s="24" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O150" s="24"/>
       <c r="P150" s="24" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q150" s="24"/>
       <c r="R150" s="14"/>
@@ -16143,32 +15870,32 @@
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="14" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K151" s="14"/>
       <c r="L151" s="14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M151" s="14"/>
       <c r="N151" s="24" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q151" s="24"/>
       <c r="R151" s="14"/>
@@ -16220,32 +15947,32 @@
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K152" s="14"/>
       <c r="L152" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M152" s="14"/>
       <c r="N152" s="24" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O152" s="24"/>
       <c r="P152" s="24" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q152" s="24"/>
       <c r="R152" s="14"/>
@@ -16297,32 +16024,32 @@
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K153" s="14"/>
       <c r="L153" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M153" s="14"/>
       <c r="N153" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O153" s="24"/>
       <c r="P153" s="24" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q153" s="24"/>
       <c r="R153" s="14"/>
@@ -16374,32 +16101,32 @@
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K154" s="14"/>
       <c r="L154" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M154" s="14"/>
       <c r="N154" s="24" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O154" s="24"/>
       <c r="P154" s="24" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Q154" s="24"/>
       <c r="R154" s="14"/>
@@ -16451,32 +16178,32 @@
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K155" s="14"/>
       <c r="L155" s="14" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M155" s="14"/>
       <c r="N155" s="24" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O155" s="24"/>
       <c r="P155" s="24" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Q155" s="24"/>
       <c r="R155" s="14"/>
@@ -16528,32 +16255,32 @@
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K156" s="14"/>
       <c r="L156" s="14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M156" s="14"/>
       <c r="N156" s="24" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O156" s="24"/>
       <c r="P156" s="24" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q156" s="24"/>
       <c r="R156" s="14"/>
@@ -16605,32 +16332,32 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K157" s="14"/>
       <c r="L157" s="14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M157" s="14"/>
       <c r="N157" s="24" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O157" s="24"/>
       <c r="P157" s="24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Q157" s="24"/>
       <c r="R157" s="14"/>
@@ -16688,26 +16415,26 @@
         <v>110</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K158" s="14"/>
       <c r="L158" s="14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M158" s="14"/>
       <c r="N158" s="24" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O158" s="24"/>
       <c r="P158" s="24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Q158" s="24"/>
       <c r="R158" s="14"/>
@@ -16730,10 +16457,10 @@
       <c r="AI158" s="14"/>
       <c r="AJ158" s="14"/>
       <c r="AK158" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AL158" s="14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AM158" s="14"/>
       <c r="AN158" s="14"/>
@@ -16763,32 +16490,32 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K159" s="14"/>
       <c r="L159" s="14" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M159" s="14"/>
       <c r="N159" s="24" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O159" s="24"/>
       <c r="P159" s="24" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Q159" s="24"/>
       <c r="R159" s="14"/>
@@ -16840,32 +16567,32 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="14" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K160" s="14"/>
       <c r="L160" s="14" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M160" s="14"/>
       <c r="N160" s="24" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O160" s="24"/>
       <c r="P160" s="24" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Q160" s="24"/>
       <c r="R160" s="14"/>
@@ -16917,32 +16644,32 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K161" s="14"/>
       <c r="L161" s="14" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M161" s="14"/>
       <c r="N161" s="24" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O161" s="24"/>
       <c r="P161" s="24" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Q161" s="24"/>
       <c r="R161" s="14"/>
@@ -16997,29 +16724,29 @@
         <v>110</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K162" s="14"/>
       <c r="L162" s="14" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M162" s="14"/>
       <c r="N162" s="24" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O162" s="24"/>
       <c r="P162" s="24" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Q162" s="24"/>
       <c r="R162" s="14"/>
@@ -17071,32 +16798,32 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K163" s="14"/>
       <c r="L163" s="14" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M163" s="14"/>
       <c r="N163" s="24" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O163" s="24"/>
       <c r="P163" s="24" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Q163" s="24"/>
       <c r="R163" s="14"/>
@@ -17148,32 +16875,32 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K164" s="14"/>
       <c r="L164" s="14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M164" s="14"/>
       <c r="N164" s="24" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O164" s="24"/>
       <c r="P164" s="24" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q164" s="24"/>
       <c r="R164" s="14"/>
@@ -17225,32 +16952,32 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K165" s="14"/>
       <c r="L165" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M165" s="14"/>
       <c r="N165" s="24" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O165" s="24"/>
       <c r="P165" s="24" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Q165" s="24"/>
       <c r="R165" s="14"/>
@@ -17302,32 +17029,32 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="14" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K166" s="14"/>
       <c r="L166" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M166" s="14"/>
       <c r="N166" s="24" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="O166" s="24"/>
       <c r="P166" s="24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Q166" s="24"/>
       <c r="R166" s="14"/>
@@ -17379,32 +17106,32 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K167" s="14"/>
       <c r="L167" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M167" s="14"/>
       <c r="N167" s="24" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="O167" s="24"/>
       <c r="P167" s="24" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q167" s="24"/>
       <c r="R167" s="14"/>
@@ -17456,32 +17183,32 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="14" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K168" s="14"/>
       <c r="L168" s="14" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M168" s="14"/>
       <c r="N168" s="24" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O168" s="24"/>
       <c r="P168" s="24" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q168" s="24"/>
       <c r="R168" s="14"/>
@@ -17536,29 +17263,29 @@
         <v>110</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K169" s="14"/>
       <c r="L169" s="14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M169" s="14"/>
       <c r="N169" s="24" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O169" s="24"/>
       <c r="P169" s="24" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Q169" s="24"/>
       <c r="R169" s="14"/>
@@ -17614,26 +17341,26 @@
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M170" s="14"/>
       <c r="N170" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O170" s="24"/>
       <c r="P170" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Q170" s="24"/>
       <c r="R170" s="14"/>
@@ -17688,29 +17415,29 @@
         <v>110</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M171" s="14"/>
       <c r="N171" s="24" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O171" s="24"/>
       <c r="P171" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Q171" s="24"/>
       <c r="R171" s="14"/>
@@ -17741,7 +17468,7 @@
       <c r="AQ171" s="14"/>
       <c r="AR171" s="14"/>
       <c r="AS171" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AT171" s="14"/>
       <c r="AU171" s="14"/>
@@ -17767,29 +17494,29 @@
         <v>110</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M172" s="14"/>
       <c r="N172" s="24" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O172" s="24"/>
       <c r="P172" s="24" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="Q172" s="24"/>
       <c r="R172" s="14"/>
@@ -17844,29 +17571,29 @@
         <v>110</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M173" s="14"/>
       <c r="N173" s="24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O173" s="24"/>
       <c r="P173" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Q173" s="24"/>
       <c r="R173" s="14"/>
@@ -17885,13 +17612,11 @@
       <c r="AE173" s="14"/>
       <c r="AF173" s="14"/>
       <c r="AG173" s="14"/>
-      <c r="AH173" s="14"/>
-      <c r="AI173" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="AJ173" s="14" t="s">
+      <c r="AH173" s="14" t="s">
         <v>795</v>
       </c>
+      <c r="AI173" s="14"/>
+      <c r="AJ173" s="14"/>
       <c r="AK173" s="14"/>
       <c r="AL173" s="14"/>
       <c r="AM173" s="14"/>
@@ -17922,13 +17647,13 @@
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
@@ -17999,13 +17724,13 @@
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -18076,13 +17801,13 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
@@ -18153,13 +17878,13 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -18230,20 +17955,20 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K178" s="14"/>
       <c r="L178" s="14" t="s">
@@ -18251,11 +17976,11 @@
       </c>
       <c r="M178" s="14"/>
       <c r="N178" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O178" s="24"/>
       <c r="P178" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q178" s="24"/>
       <c r="R178" s="14"/>
@@ -18510,22 +18235,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BH100000">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C2="SL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$C2="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>$C2="SQ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$C2="A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18541,7 +18266,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -18581,7 +18306,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>825</v>
@@ -18598,7 +18323,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>828</v>
@@ -18632,7 +18357,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>833</v>
@@ -18666,7 +18391,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>836</v>
@@ -18683,7 +18408,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>837</v>
@@ -18751,7 +18476,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>844</v>
@@ -18785,7 +18510,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>848</v>
@@ -18819,7 +18544,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>852</v>
@@ -18836,7 +18561,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>853</v>
@@ -18870,7 +18595,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>857</v>
@@ -18904,7 +18629,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>861</v>
@@ -18921,7 +18646,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>862</v>
@@ -18972,7 +18697,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>866</v>
@@ -19023,7 +18748,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>875</v>
@@ -19040,7 +18765,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>876</v>
@@ -19057,7 +18782,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>878</v>
@@ -19124,7 +18849,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>886</v>
@@ -19250,7 +18975,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>912</v>
@@ -19320,7 +19045,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -19332,7 +19057,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>926</v>
@@ -19346,7 +19071,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -19408,7 +19133,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>936</v>
@@ -19422,7 +19147,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>938</v>
@@ -19450,7 +19175,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>943</v>
@@ -19464,7 +19189,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>945</v>
@@ -19478,7 +19203,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>947</v>
@@ -19506,52 +19231,52 @@
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>794</v>
+        <v>950</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -19562,7 +19287,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -19570,44 +19295,44 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -19618,7 +19343,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -19626,55 +19351,55 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D48" s="1"/>
     </row>
@@ -19702,7 +19427,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>882</v>
@@ -19711,7 +19436,7 @@
         <v>883</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -19725,13 +19450,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -19748,10 +19473,10 @@
         <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -19768,10 +19493,10 @@
         <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -19788,10 +19513,10 @@
         <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -19808,10 +19533,10 @@
         <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19828,10 +19553,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19845,13 +19570,13 @@
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19868,10 +19593,10 @@
         <v>73</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19888,10 +19613,10 @@
         <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>999</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -19902,16 +19627,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -19922,16 +19647,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -19948,10 +19673,10 @@
         <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -19962,16 +19687,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -19982,16 +19707,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -20008,10 +19733,10 @@
         <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -20028,10 +19753,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -20042,16 +19767,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -20068,10 +19793,10 @@
         <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -20088,10 +19813,10 @@
         <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -20102,16 +19827,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -20122,16 +19847,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -20142,58 +19867,58 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -20204,7 +19929,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>882</v>
@@ -20213,7 +19938,7 @@
         <v>883</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -20221,13 +19946,13 @@
         <v>85</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
@@ -20235,13 +19960,13 @@
         <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
@@ -20249,13 +19974,13 @@
         <v>95</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>1041</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -20263,41 +19988,41 @@
         <v>100</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -20318,7 +20043,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -20330,49 +20055,49 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -20384,28 +20109,28 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -20417,42 +20142,42 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -20464,56 +20189,56 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -20525,77 +20250,77 @@
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -20607,28 +20332,28 @@
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -20640,28 +20365,28 @@
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="17" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -20673,35 +20398,35 @@
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="16" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="16" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="16" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="16" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -20718,7 +20443,7 @@
     </row>
     <row r="61" spans="1:3" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -20730,7 +20455,7 @@
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="18" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -20742,14 +20467,14 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="19" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -20761,14 +20486,14 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="19" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="16" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -20780,14 +20505,14 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="19" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="16" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -20799,21 +20524,21 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="19" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="16" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="16" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -20825,28 +20550,28 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="19" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="16" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -20858,21 +20583,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="19" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="16" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="16" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -20884,42 +20609,42 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="19" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="16" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="16" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="16" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="16" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="16" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -20931,14 +20656,14 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="19" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="16" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -20950,14 +20675,14 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="19" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="16" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -20969,14 +20694,14 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="19" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="16" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -20988,14 +20713,14 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="19" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="16" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -21007,14 +20732,14 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="19" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="16" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -21031,28 +20756,28 @@
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="18" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="16" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="16" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="16" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>

--- a/limesurvey_survey_builder.xlsx
+++ b/limesurvey_survey_builder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d25bc81654746e6/GitHub/limesurvey-excel-builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_81CD780B6FE431C4565093A94BF2E0DE1051590A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD52EA87-8BB6-45E1-B5FE-8109CD9D7655}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_81CD780B6FE431C4565093A94BF2E0DE1051590A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E3CECB-CA2E-429E-A36C-4A19D019125D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3819,7 +3819,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3838,6 +3838,48 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF8BE5B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFF2AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB9F1D1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4163,8 +4205,8 @@
   <dimension ref="A1:BI181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18235,22 +18277,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BH100000">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$C2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$C2="SL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$C2="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$C2="Q"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>$C2="SQ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>$C2="A"</formula>
     </cfRule>
   </conditionalFormatting>
